--- a/Sprint 2/ABA_Prototype_Questionnaire.xlsx
+++ b/Sprint 2/ABA_Prototype_Questionnaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stda/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\GitHub\01_TEAM\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FAE6E3-6720-F246-9DAC-E355F1C3B1EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ED2394-CDA0-4A02-BC6C-FECBA80D0090}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{F3BEB36D-AAAE-7243-A6BA-C70EF343EBF7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F3BEB36D-AAAE-7243-A6BA-C70EF343EBF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Questionnaire" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -209,6 +209,36 @@
   </si>
   <si>
     <t>Reduce possible answers to three, include more swiping than clicking</t>
+  </si>
+  <si>
+    <t>Ada</t>
+  </si>
+  <si>
+    <t>Colour-scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy to answer </t>
+  </si>
+  <si>
+    <t>I would have to use the app to try it out first</t>
+  </si>
+  <si>
+    <t>Catchier layout, include more information</t>
+  </si>
+  <si>
+    <t>no need for it</t>
+  </si>
+  <si>
+    <t>perfect mix between private and not too provate, did not feel uncomfortable answering them</t>
+  </si>
+  <si>
+    <t>Most of the tips given are not something new, so there's not a big value to it. However, if more features would be added, I would maybe pay for it.</t>
+  </si>
+  <si>
+    <t>Easy to choose given options, no drop-down menu anymore, user-friendly, makes you think about your relationship &amp; what you could change</t>
+  </si>
+  <si>
+    <t>Milica</t>
   </si>
 </sst>
 </file>
@@ -277,7 +307,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -293,7 +323,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -591,11 +621,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4A3E3D-6241-C449-B2E2-7A7CA1D5A3FF}">
   <dimension ref="B2:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
@@ -619,7 +649,7 @@
     <col min="20" max="20" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -678,7 +708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -737,7 +767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4" s="6">
         <v>2</v>
       </c>
@@ -796,7 +826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -855,7 +885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="6">
         <v>4</v>
       </c>
@@ -914,7 +944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>5</v>
       </c>
@@ -973,7 +1003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -1032,16 +1062,128 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" s="3">
+        <v>7</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="3">
+        <v>8</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="P12" s="2"/>
     </row>
   </sheetData>
@@ -1052,18 +1194,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE90BB7C-C73E-0A42-A6E5-85B2BC4B0DE0}">
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1079,7 +1221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1087,7 +1229,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1095,7 +1237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1103,7 +1245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1111,12 +1253,28 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 2/ABA_Prototype_Questionnaire.xlsx
+++ b/Sprint 2/ABA_Prototype_Questionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\GitHub\01_TEAM\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ED2394-CDA0-4A02-BC6C-FECBA80D0090}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB074CA-0214-4239-8C83-C5B2D8D1159D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F3BEB36D-AAAE-7243-A6BA-C70EF343EBF7}"/>
   </bookViews>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4A3E3D-6241-C449-B2E2-7A7CA1D5A3FF}">
   <dimension ref="B2:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1067,7 +1067,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -1085,7 +1085,7 @@
         <v>19</v>
       </c>
       <c r="I9" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -1094,7 +1094,7 @@
         <v>19</v>
       </c>
       <c r="L9" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M9" t="s">
         <v>60</v>
@@ -1126,7 +1126,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -1144,7 +1144,7 @@
         <v>63</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
@@ -1153,7 +1153,7 @@
         <v>19</v>
       </c>
       <c r="L10" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M10" t="s">
         <v>64</v>

--- a/Sprint 2/ABA_Prototype_Questionnaire.xlsx
+++ b/Sprint 2/ABA_Prototype_Questionnaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\GitHub\01_TEAM\Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TheGod/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB074CA-0214-4239-8C83-C5B2D8D1159D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A965434-1435-A64A-9DF6-E605968F4A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F3BEB36D-AAAE-7243-A6BA-C70EF343EBF7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{F3BEB36D-AAAE-7243-A6BA-C70EF343EBF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Questionnaire" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -239,6 +239,48 @@
   </si>
   <si>
     <t>Milica</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Hong</t>
+  </si>
+  <si>
+    <t>New experience of survey, never filled out a survey in this topic before, I would prefer more questions to get deeper.</t>
+  </si>
+  <si>
+    <t>I think it helps reflecting the own relationship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The survey on the smartphone worked perfectly, but the form was confusing to fill out. </t>
+  </si>
+  <si>
+    <t>I liked the question, but it could have been more</t>
+  </si>
+  <si>
+    <t>For this, the survey should be larger, have more questions… And it would be good if there was the possibility of a rating at the end and then the option to compare with other participants (anonymous).</t>
+  </si>
+  <si>
+    <t>: I like the techn. background (design, etc) of the survey. What is missing is the option STUDENT as profession and no description if the survey is anonymous or not.</t>
+  </si>
+  <si>
+    <t>maybe a little bit. It summarizes a relationship and motivate to improve it.</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>No, not enough questions available to help my relationship</t>
+  </si>
+  <si>
+    <t>the idea of survey</t>
+  </si>
+  <si>
+    <t>confusing feedback form (design)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would pay for it, if the survey contains more personal questions. </t>
   </si>
 </sst>
 </file>
@@ -248,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ [$CHF-807]\ * #,##0.00_ ;_ [$CHF-807]\ * \-#,##0.00_ ;_ [$CHF-807]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -263,6 +305,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -291,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -305,6 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -621,11 +670,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4A3E3D-6241-C449-B2E2-7A7CA1D5A3FF}">
   <dimension ref="B2:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="P2" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
@@ -649,7 +698,7 @@
     <col min="20" max="20" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:20" s="4" customFormat="1">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -708,7 +757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -767,7 +816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20">
       <c r="B4" s="6">
         <v>2</v>
       </c>
@@ -826,7 +875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:20">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -885,7 +934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:20">
       <c r="B6" s="6">
         <v>4</v>
       </c>
@@ -944,7 +993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:20">
       <c r="B7" s="6">
         <v>5</v>
       </c>
@@ -1003,7 +1052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:20">
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -1062,7 +1111,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:20">
       <c r="B9" s="6">
         <v>7</v>
       </c>
@@ -1121,7 +1170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:20">
       <c r="B10" s="6">
         <v>8</v>
       </c>
@@ -1170,9 +1219,6 @@
       <c r="Q10" t="s">
         <v>65</v>
       </c>
-      <c r="R10" s="3">
-        <v>8</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1180,11 +1226,105 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="P12" s="2"/>
+    <row r="11" spans="2:20">
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="3">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="3">
+        <v>5</v>
+      </c>
+      <c r="M11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="3">
+        <v>5</v>
+      </c>
+      <c r="M12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:T2" xr:uid="{B634C48A-7220-AF48-8D56-59D0988C97BC}"/>
@@ -1194,18 +1334,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE90BB7C-C73E-0A42-A6E5-85B2BC4B0DE0}">
-  <dimension ref="B2:C10"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1213,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1221,7 +1361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1229,7 +1369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1237,7 +1377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1245,7 +1385,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1253,7 +1393,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1261,7 +1401,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1269,12 +1409,28 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3">
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 2/ABA_Prototype_Questionnaire.xlsx
+++ b/Sprint 2/ABA_Prototype_Questionnaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TheGod/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\GitHub\01_TEAM\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A965434-1435-A64A-9DF6-E605968F4A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012C5018-5795-459C-AF14-41A04E44AFD3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{F3BEB36D-AAAE-7243-A6BA-C70EF343EBF7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F3BEB36D-AAAE-7243-A6BA-C70EF343EBF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Questionnaire" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -281,6 +281,18 @@
   </si>
   <si>
     <t xml:space="preserve">I would pay for it, if the survey contains more personal questions. </t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Liked the simplicity of the app and how easy it is to get some tips of things you can do with your partner</t>
+  </si>
+  <si>
+    <t>other colour scheme</t>
+  </si>
+  <si>
+    <t>short &amp; easy</t>
   </si>
 </sst>
 </file>
@@ -290,7 +302,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ [$CHF-807]\ * #,##0.00_ ;_ [$CHF-807]\ * \-#,##0.00_ ;_ [$CHF-807]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -305,12 +317,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF24292E"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -339,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -353,7 +359,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -668,13 +673,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4A3E3D-6241-C449-B2E2-7A7CA1D5A3FF}">
-  <dimension ref="B2:T12"/>
+  <dimension ref="B2:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P2" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
@@ -698,7 +703,7 @@
     <col min="20" max="20" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" s="4" customFormat="1">
+    <row r="2" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -757,7 +762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -816,7 +821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4" s="6">
         <v>2</v>
       </c>
@@ -875,7 +880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -934,7 +939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="6">
         <v>4</v>
       </c>
@@ -993,7 +998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>5</v>
       </c>
@@ -1052,7 +1057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -1111,7 +1116,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>7</v>
       </c>
@@ -1170,7 +1175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <v>8</v>
       </c>
@@ -1226,29 +1231,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <v>9</v>
       </c>
       <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" t="s">
         <v>70</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" t="s">
         <v>71</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11">
         <v>6</v>
       </c>
       <c r="J11" t="s">
@@ -1257,7 +1262,7 @@
       <c r="K11" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11">
         <v>5</v>
       </c>
       <c r="M11" t="s">
@@ -1266,48 +1271,48 @@
       <c r="N11" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11">
         <v>0</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
         <v>10</v>
       </c>
       <c r="C12" s="3">
         <v>4</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" t="s">
         <v>75</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" t="s">
         <v>76</v>
       </c>
       <c r="H12" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12">
         <v>6</v>
       </c>
       <c r="J12" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12">
         <v>5</v>
       </c>
       <c r="M12" t="s">
@@ -1316,14 +1321,73 @@
       <c r="N12" t="s">
         <v>80</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12">
         <v>0</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B13" s="6">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="3">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="3">
+        <v>5</v>
+      </c>
+      <c r="M13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13">
+        <v>8</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1334,18 +1398,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE90BB7C-C73E-0A42-A6E5-85B2BC4B0DE0}">
-  <dimension ref="B2:C12"/>
+  <dimension ref="B2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1361,7 +1425,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1369,7 +1433,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1377,7 +1441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1385,7 +1449,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1393,7 +1457,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1401,7 +1465,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1409,7 +1473,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>8</v>
       </c>
@@ -1417,7 +1481,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1425,12 +1489,20 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
